--- a/biology/Zoologie/Cybaeina/Cybaeina.xlsx
+++ b/biology/Zoologie/Cybaeina/Cybaeina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeina est un genre d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeina est un genre d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis au Washington et en Oregon et au Canada en Colombie-Britannique[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis au Washington et en Oregon et au Canada en Colombie-Britannique,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 24/08/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 24/08/2023) :
 Cybaeina confusa Chamberlin &amp; Ivie, 1942
 Cybaeina dixoni Bennett, 2023
 Cybaeina minuta (Banks, 1906)</t>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Chamberlin et Ivie en 1932 dans les Agelenidae. Il est placé dans les Cybaeidae par Lehtinen en 1967[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Chamberlin et Ivie en 1932 dans les Agelenidae. Il est placé dans les Cybaeidae par Lehtinen en 1967.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin &amp; Ivie, 1932 : « A review of the North American spiders of the genera Cybaeus and Cybaeina. » Bulletin of the University of Utah, vol. 23, no 2, p. 1-43 (texte intégral).</t>
         </is>
